--- a/resources/ca.xlsx
+++ b/resources/ca.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perema\Documents\Projects\legacy_webapp\TRICC-Webapp\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,202 +24,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
-  <si>
-    <t xml:space="preserve">cond1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cond2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_convulsions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_pharyngitis_streptococcal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_fluid_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_fever_develop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_rapid_breathing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_fever_days2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_days2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_days3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_days4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_days5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_fup_days14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_abscess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_aei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_anemia_none_severe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_bronchitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cellulitis_non_febrile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_chickenpox_infected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_conjunctivitis_bacterial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_conjunctivitis_viral_allergic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_constipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cough_persistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_convulsions_past</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_diarhoea_acute_without_dehydration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_dysentery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_ear_infection_viral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_eczema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_eczema_infected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_episode_wheezing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_folliculitis_facial_or_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_furuncle_boil_isolated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_herpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_impetigo_ecthyma_extensive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_impetigo_simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_infection_respiratory_associated_pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_infection_skin_fungal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_lesions_oral_benign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_malaria_presumptive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_malaria_simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_measles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_measles_with_complications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_molluscum_contagiosum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_pharyngitis_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_pharyngitis_viral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_problem_skin_unclassified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_ringworm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_scabies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_scabies_infected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_schistosomiasis_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_shingles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_thrush_oral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_trachoma_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_urti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_urticaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_varicella_chickenpox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_vomit_no_dehydration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cystitis_acute</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+  <si>
+    <t>cond1</t>
+  </si>
+  <si>
+    <t>cond2</t>
+  </si>
+  <si>
+    <t>ca_convulsions</t>
+  </si>
+  <si>
+    <t>ca_pharyngitis_streptococcal</t>
+  </si>
+  <si>
+    <t>ca_fluid_increase</t>
+  </si>
+  <si>
+    <t>ca_fever_develop</t>
+  </si>
+  <si>
+    <t>ca_rapid_breathing</t>
+  </si>
+  <si>
+    <t>ca_fever_days2</t>
+  </si>
+  <si>
+    <t>ca_pneumonia</t>
+  </si>
+  <si>
+    <t>ca_days2</t>
+  </si>
+  <si>
+    <t>ca_days3</t>
+  </si>
+  <si>
+    <t>ca_days4</t>
+  </si>
+  <si>
+    <t>ca_days5</t>
+  </si>
+  <si>
+    <t>ca_fup_days14</t>
+  </si>
+  <si>
+    <t>d_abscess</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>d_aei</t>
+  </si>
+  <si>
+    <t>d_anemia_none_severe</t>
+  </si>
+  <si>
+    <t>d_bronchitis</t>
+  </si>
+  <si>
+    <t>d_cei</t>
+  </si>
+  <si>
+    <t>d_cellulitis_non_febrile</t>
+  </si>
+  <si>
+    <t>d_chickenpox_infected</t>
+  </si>
+  <si>
+    <t>d_conjunctivitis_bacterial</t>
+  </si>
+  <si>
+    <t>d_conjunctivitis_viral_allergic</t>
+  </si>
+  <si>
+    <t>d_constipation</t>
+  </si>
+  <si>
+    <t>d_cough_persistent</t>
+  </si>
+  <si>
+    <t>d_convulsions_past</t>
+  </si>
+  <si>
+    <t>d_diarhoea_acute_without_dehydration</t>
+  </si>
+  <si>
+    <t>d_dysentery</t>
+  </si>
+  <si>
+    <t>d_ear_infection_viral</t>
+  </si>
+  <si>
+    <t>d_eczema</t>
+  </si>
+  <si>
+    <t>d_eczema_infected</t>
+  </si>
+  <si>
+    <t>d_episode_wheezing</t>
+  </si>
+  <si>
+    <t>d_folliculitis_facial_or_multiple</t>
+  </si>
+  <si>
+    <t>d_furuncle_boil_isolated</t>
+  </si>
+  <si>
+    <t>d_herpes</t>
+  </si>
+  <si>
+    <t>d_impetigo_ecthyma_extensive</t>
+  </si>
+  <si>
+    <t>d_impetigo_simple</t>
+  </si>
+  <si>
+    <t>d_infection_respiratory_associated_pain</t>
+  </si>
+  <si>
+    <t>d_infection_skin_fungal</t>
+  </si>
+  <si>
+    <t>d_lesions_oral_benign</t>
+  </si>
+  <si>
+    <t>d_malaria_presumptive</t>
+  </si>
+  <si>
+    <t>d_malaria_simple</t>
+  </si>
+  <si>
+    <t>d_measles</t>
+  </si>
+  <si>
+    <t>d_measles_with_complications</t>
+  </si>
+  <si>
+    <t>d_molluscum_contagiosum</t>
+  </si>
+  <si>
+    <t>d_pharyngitis_possible</t>
+  </si>
+  <si>
+    <t>d_pharyngitis_viral</t>
+  </si>
+  <si>
+    <t>d_pneumonia</t>
+  </si>
+  <si>
+    <t>d_problem_skin_unclassified</t>
+  </si>
+  <si>
+    <t>d_ringworm</t>
+  </si>
+  <si>
+    <t>d_scabies</t>
+  </si>
+  <si>
+    <t>d_scabies_infected</t>
+  </si>
+  <si>
+    <t>d_schistosomiasis_possible</t>
+  </si>
+  <si>
+    <t>d_shingles</t>
+  </si>
+  <si>
+    <t>d_thrush_oral</t>
+  </si>
+  <si>
+    <t>d_trachoma_possible</t>
+  </si>
+  <si>
+    <t>d_urti</t>
+  </si>
+  <si>
+    <t>d_urticaria</t>
+  </si>
+  <si>
+    <t>d_varicella_chickenpox</t>
+  </si>
+  <si>
+    <t>d_vomit_no_dehydration</t>
+  </si>
+  <si>
+    <t>d_cystitis_acute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -223,22 +224,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -254,7 +240,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -262,88 +248,323 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J48" activeCellId="0" sqref="J48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="999" min="15" style="1" width="27.38"/>
+    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" customWidth="1"/>
+    <col min="15" max="999" width="27.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -386,33 +607,33 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="ALL1"/>
+      <c r="ALM1"/>
+      <c r="ALN1"/>
+      <c r="ALO1"/>
+      <c r="ALP1"/>
+      <c r="ALQ1"/>
+      <c r="ALR1"/>
+      <c r="ALS1"/>
+      <c r="ALT1"/>
+      <c r="ALU1"/>
+      <c r="ALV1"/>
+      <c r="ALW1"/>
+      <c r="ALX1"/>
+      <c r="ALY1"/>
+      <c r="ALZ1"/>
+      <c r="AMA1"/>
+      <c r="AMB1"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
+      <c r="AMG1"/>
+      <c r="AMH1"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -423,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -431,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -445,12 +666,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -458,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -469,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -477,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -488,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -499,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -510,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -518,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -532,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -543,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -551,7 +772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -568,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -576,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -584,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -592,15 +813,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -608,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -616,15 +840,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -638,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -646,7 +873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -654,7 +881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -665,7 +892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -673,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -681,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -695,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -706,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -714,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -722,12 +949,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -735,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -746,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -754,7 +981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -762,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -770,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -778,7 +1005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -786,7 +1013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -794,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -805,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
@@ -813,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -821,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -829,7 +1056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
@@ -840,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -855,10 +1082,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/resources/ca.xlsx
+++ b/resources/ca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perema\Documents\Projects\legacy_webapp\TRICC-Webapp\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perema\Documents\Projects\MSFeCARE\forms-clinical\ped\release_ped_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>cond1</t>
   </si>
@@ -209,7 +209,7 @@
     <t>d_vomit_no_dehydration</t>
   </si>
   <si>
-    <t>d_cystitis_acute</t>
+    <t>d_lower_uti</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -817,9 +817,6 @@
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M20" s="1" t="s">
         <v>15</v>
       </c>
@@ -843,9 +840,6 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>15</v>
